--- a/LGPD.xlsx
+++ b/LGPD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hackti-my.sharepoint.com/personal/pedro_bezerra_hackti_org/Documents/DEV/Dev_Watson/Bases_para_Github/Bases-de-Dados-de-GRC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive_HackTi.org\OneDrive - Hackti.org\DEV\Dev_Watson\Bases_para_Github\Bases-de-Dados-de-GRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{CCF31137-B40F-40A9-974F-918B553C718A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{63A1961E-ADC7-4724-88CD-6BD6F549B852}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{CCF31137-B40F-40A9-974F-918B553C718A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CF33EE0D-5D29-45F3-A508-35BC4A9F5C13}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="8820" activeTab="1" xr2:uid="{146E37C3-4AEE-4B0F-9DAE-2D73837273AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="8820" xr2:uid="{146E37C3-4AEE-4B0F-9DAE-2D73837273AB}"/>
   </bookViews>
   <sheets>
     <sheet name="LGPD_Integra" sheetId="2" r:id="rId1"/>
@@ -10476,8 +10476,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1269</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1020444</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>874394</xdr:rowOff>
     </xdr:to>
@@ -10820,11 +10820,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E13DC0-796A-4D80-B2CA-08AE85BB4F8F}">
   <dimension ref="A1:A471"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
@@ -13205,7 +13207,7 @@
   </sheetPr>
   <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>

--- a/LGPD.xlsx
+++ b/LGPD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive_HackTi.org\OneDrive - Hackti.org\DEV\Dev_Watson\Bases_para_Github\Bases-de-Dados-de-GRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{CCF31137-B40F-40A9-974F-918B553C718A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CF33EE0D-5D29-45F3-A508-35BC4A9F5C13}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{CCF31137-B40F-40A9-974F-918B553C718A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{868724EE-C680-4959-A6CE-CD741902294C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="8820" xr2:uid="{146E37C3-4AEE-4B0F-9DAE-2D73837273AB}"/>
   </bookViews>
@@ -10392,7 +10392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -10447,6 +10447,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10821,7 +10824,7 @@
   <dimension ref="A1:A471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -10859,7 +10862,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13207,7 +13210,9 @@
   </sheetPr>
   <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
